--- a/target/test-classes/codes_links.xlsx
+++ b/target/test-classes/codes_links.xlsx
@@ -20,12 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">PROMO CODE</t>
   </si>
   <si>
     <t xml:space="preserve">AMAZON LINK</t>
+  </si>
+  <si>
+    <t>75E5GYPF</t>
+  </si>
+  <si>
+    <t>https://amzn.to/35YdcNT</t>
+  </si>
+  <si>
+    <t>50G2LSZS</t>
+  </si>
+  <si>
+    <t>https://amzn.to/34SCPk3</t>
+  </si>
+  <si>
+    <t>70P4RNKQ</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2Gu3zOo</t>
+  </si>
+  <si>
+    <t>OL6CWTAS</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3mOq1RU</t>
+  </si>
+  <si>
+    <t>40G5YMUV</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3oMekN4</t>
+  </si>
+  <si>
+    <t>5NJ7BSJG</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3kQbTa8</t>
+  </si>
+  <si>
+    <t>69226XKI</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2GphbKL</t>
+  </si>
+  <si>
+    <t>5049YPD2</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3enAIYD</t>
   </si>
 </sst>
 </file>
@@ -209,9 +257,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="22.86" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="36.99" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="1025" customWidth="true" hidden="false" style="0" width="14.43" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,51 +271,51 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/target/test-classes/codes_links.xlsx
+++ b/target/test-classes/codes_links.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oakkas\IdeaProjects\amazonPromoCode\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213C9BA-BE3D-4076-A112-2D171249D23B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E15309F-5770-490C-8B17-602E4EB91852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>PROMO CODE</t>
   </si>
@@ -33,18 +33,6 @@
     <t>AMAZON LINK</t>
   </si>
   <si>
-    <t>50IMF641</t>
-  </si>
-  <si>
-    <t>https://amzn.to/3249PnA</t>
-  </si>
-  <si>
-    <t>50DR4J2D</t>
-  </si>
-  <si>
-    <t>https://amzn.to/3eo9mBm</t>
-  </si>
-  <si>
     <t>PRICE BEFORE DISCOUNT</t>
   </si>
   <si>
@@ -54,20 +42,121 @@
     <t>PRICE AFTER DISCOUNT</t>
   </si>
   <si>
-    <t>16.99</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>17.71</t>
+    <t>7513H7RU</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3l9aIm4</t>
+  </si>
+  <si>
+    <t>VW3OO33I</t>
+  </si>
+  <si>
+    <t>https://amzn.to/36ePEVd</t>
+  </si>
+  <si>
+    <t>50NCO1AW</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2I4Xc4W</t>
+  </si>
+  <si>
+    <t>75BTP3FO</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3p2Zcev</t>
+  </si>
+  <si>
+    <t>80SUU4RG</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3p2VbH1</t>
+  </si>
+  <si>
+    <t>30A9FB9D</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3l5Fa0l</t>
+  </si>
+  <si>
+    <t>40V11OCX</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3p17lA6</t>
+  </si>
+  <si>
+    <t>50ABX81N</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3p0GcgG</t>
+  </si>
+  <si>
+    <t>708HH8NI</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2UdUQ6h</t>
+  </si>
+  <si>
+    <t>XG6E9VDH</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3jR5TMS</t>
+  </si>
+  <si>
+    <t>6QW8FPYK</t>
+  </si>
+  <si>
+    <t>https://amzn.to/369yU1v</t>
+  </si>
+  <si>
+    <t>50AMWE7N</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3526xDb</t>
+  </si>
+  <si>
+    <t>AKG2A7XR</t>
+  </si>
+  <si>
+    <t>https://amzn.to/366EPnX</t>
+  </si>
+  <si>
+    <t>602MJZOD</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3k0nYrN</t>
+  </si>
+  <si>
+    <t>XYVISYPA</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2JH3Xdx</t>
+  </si>
+  <si>
+    <t>POMSHEER</t>
+  </si>
+  <si>
+    <t>https://amzn.to/3l5HMeV</t>
+  </si>
+  <si>
+    <t>WBAVXULC</t>
+  </si>
+  <si>
+    <t>https://amzn.to/32jvmZg</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2I1WWUk</t>
+  </si>
+  <si>
+    <t>50HSN7XL</t>
+  </si>
+  <si>
+    <t>https://amzn.to/36bKZmH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -83,17 +172,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,9 +216,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,20 +601,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.84375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.3046875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.4609375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.69140625" collapsed="true"/>
-    <col min="6" max="1025" customWidth="true" width="14.4609375" collapsed="true"/>
+    <col min="1" max="1" width="22.84375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="27.3046875" customWidth="1"/>
+    <col min="4" max="4" width="14.4609375" customWidth="1"/>
+    <col min="5" max="5" width="25.69140625" customWidth="1"/>
+    <col min="6" max="1025" width="14.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.15" x14ac:dyDescent="0.35">
@@ -533,46 +624,192 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>